--- a/snapshot/BodyTemperatureMeas.xlsx
+++ b/snapshot/BodyTemperatureMeas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="528">
   <si>
     <t>Path</t>
   </si>
@@ -355,7 +355,7 @@
     <t>deltaFlag</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/deltaFlag]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/deltaFlag]]} {[]}
 </t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>associatedPrecondition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/associatedPrecondition]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/associatedPrecondition]]} {[]}
 </t>
   </si>
   <si>
@@ -386,10 +386,14 @@
     <t>The set of codes that describe conditions or events that effect an observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}
+</t>
+  </si>
+  <si>
     <t>methodDevice</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/methodDevice]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/methodDevice]]} {[]}
 </t>
   </si>
   <si>
@@ -3130,7 +3134,7 @@
         <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>45</v>
@@ -3156,7 +3160,7 @@
         <v>100</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>45</v>
@@ -3178,13 +3182,13 @@
         <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3270,11 +3274,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3296,13 +3300,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3352,7 +3356,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3387,7 +3391,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3410,17 +3414,17 @@
         <v>57</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3469,7 +3473,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3484,19 +3488,19 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3504,11 +3508,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3527,17 +3531,17 @@
         <v>57</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3586,7 +3590,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3601,16 +3605,16 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3647,16 +3651,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3681,13 +3685,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3705,7 +3709,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>56</v>
@@ -3720,19 +3724,19 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3740,7 +3744,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3763,19 +3767,19 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3800,13 +3804,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3824,7 +3828,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3848,10 +3852,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3859,11 +3863,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3882,17 +3886,17 @@
         <v>57</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3917,13 +3921,13 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3941,7 +3945,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>56</v>
@@ -3956,27 +3960,27 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3999,13 +4003,13 @@
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4056,7 +4060,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -4080,7 +4084,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -4091,11 +4095,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4117,13 +4121,13 @@
         <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4161,10 +4165,10 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
@@ -4173,7 +4177,7 @@
         <v>105</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4197,7 +4201,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4208,7 +4212,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4231,19 +4235,19 @@
         <v>57</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4292,7 +4296,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4313,10 +4317,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4327,7 +4331,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4350,13 +4354,13 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4407,7 +4411,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4431,7 +4435,7 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4442,11 +4446,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4468,13 +4472,13 @@
         <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4512,10 +4516,10 @@
         <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>45</v>
@@ -4524,7 +4528,7 @@
         <v>105</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4548,7 +4552,7 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4559,7 +4563,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4585,23 +4589,23 @@
         <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>45</v>
@@ -4643,7 +4647,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4664,10 +4668,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4678,7 +4682,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4701,16 +4705,16 @@
         <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4760,7 +4764,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4781,10 +4785,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4795,7 +4799,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4821,21 +4825,21 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>45</v>
@@ -4877,7 +4881,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4898,10 +4902,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4912,7 +4916,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4935,24 +4939,24 @@
         <v>57</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>45</v>
@@ -4994,7 +4998,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -5015,10 +5019,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -5029,7 +5033,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5052,19 +5056,19 @@
         <v>57</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -5113,7 +5117,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5134,10 +5138,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5148,7 +5152,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5171,19 +5175,19 @@
         <v>57</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5232,7 +5236,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5253,10 +5257,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5267,7 +5271,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5290,19 +5294,19 @@
         <v>57</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5351,7 +5355,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5366,19 +5370,19 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5386,11 +5390,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5409,19 +5413,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5470,7 +5474,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5485,19 +5489,19 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5505,11 +5509,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5528,19 +5532,19 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5589,7 +5593,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5604,19 +5608,19 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5624,7 +5628,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5647,16 +5651,16 @@
         <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5706,7 +5710,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5727,13 +5731,13 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5741,7 +5745,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5764,17 +5768,17 @@
         <v>57</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5823,7 +5827,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5838,19 +5842,19 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5858,7 +5862,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5881,19 +5885,19 @@
         <v>57</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5942,7 +5946,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5951,33 +5955,33 @@
         <v>56</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6000,13 +6004,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6057,7 +6061,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6081,7 +6085,7 @@
         <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -6092,11 +6096,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6118,13 +6122,13 @@
         <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6162,10 +6166,10 @@
         <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>45</v>
@@ -6174,7 +6178,7 @@
         <v>105</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6198,7 +6202,7 @@
         <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6209,7 +6213,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6232,19 +6236,19 @@
         <v>57</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6293,7 +6297,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6314,10 +6318,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6328,7 +6332,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6354,22 +6358,22 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q39" t="s" s="2">
         <v>45</v>
@@ -6390,13 +6394,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6414,7 +6418,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6435,10 +6439,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6449,7 +6453,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6472,17 +6476,17 @@
         <v>57</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6531,7 +6535,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6552,10 +6556,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6566,7 +6570,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6589,26 +6593,26 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>45</v>
@@ -6650,7 +6654,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6662,7 +6666,7 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
@@ -6685,7 +6689,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6708,26 +6712,26 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>45</v>
@@ -6769,7 +6773,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6781,7 +6785,7 @@
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6804,7 +6808,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6827,19 +6831,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6867,10 +6871,10 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6888,7 +6892,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6897,13 +6901,13 @@
         <v>56</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
@@ -6912,7 +6916,7 @@
         <v>99</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6923,11 +6927,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6946,17 +6950,17 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6981,11 +6985,11 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7003,7 +7007,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7021,24 +7025,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7061,17 +7065,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7120,7 +7124,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7135,16 +7139,16 @@
         <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7155,7 +7159,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7178,16 +7182,16 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7213,11 +7217,11 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7235,7 +7239,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7253,24 +7257,24 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7293,19 +7297,19 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7330,13 +7334,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7354,7 +7358,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7375,10 +7379,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7389,7 +7393,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7412,16 +7416,16 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7471,7 +7475,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7489,24 +7493,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7529,16 +7533,16 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7588,7 +7592,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7606,24 +7610,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7646,19 +7650,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7707,7 +7711,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7719,7 +7723,7 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7728,10 +7732,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7742,7 +7746,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7765,13 +7769,13 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7822,7 +7826,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7846,7 +7850,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7857,11 +7861,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7883,13 +7887,13 @@
         <v>101</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7939,7 +7943,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7963,7 +7967,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7974,11 +7978,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8000,13 +8004,13 @@
         <v>101</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8056,7 +8060,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8091,7 +8095,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8114,13 +8118,13 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8171,7 +8175,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8180,7 +8184,7 @@
         <v>56</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>45</v>
@@ -8192,10 +8196,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8206,7 +8210,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8229,13 +8233,13 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8286,7 +8290,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8295,7 +8299,7 @@
         <v>56</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>45</v>
@@ -8307,10 +8311,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8321,7 +8325,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8344,19 +8348,19 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8384,10 +8388,10 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8405,7 +8409,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8423,13 +8427,13 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8440,7 +8444,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8463,19 +8467,19 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8500,13 +8504,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8524,7 +8528,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8542,13 +8546,13 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8559,7 +8563,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8582,17 +8586,17 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8641,7 +8645,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8665,7 +8669,7 @@
         <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8676,7 +8680,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8699,13 +8703,13 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8756,7 +8760,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8777,10 +8781,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8791,7 +8795,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8814,19 +8818,19 @@
         <v>57</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8875,7 +8879,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8887,7 +8891,7 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8896,10 +8900,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8910,7 +8914,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8933,13 +8937,13 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8990,7 +8994,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9014,7 +9018,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9025,11 +9029,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9051,13 +9055,13 @@
         <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9107,7 +9111,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9131,7 +9135,7 @@
         <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9142,11 +9146,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9168,13 +9172,13 @@
         <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9224,7 +9228,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9259,7 +9263,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9285,16 +9289,16 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9319,13 +9323,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9343,7 +9347,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9367,7 +9371,7 @@
         <v>99</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9378,7 +9382,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9401,13 +9405,13 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9458,7 +9462,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>56</v>
@@ -9482,7 +9486,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9493,7 +9497,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9516,19 +9520,19 @@
         <v>57</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9577,7 +9581,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9589,7 +9593,7 @@
         <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
@@ -9598,10 +9602,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9612,7 +9616,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9635,13 +9639,13 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9692,7 +9696,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9716,7 +9720,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9727,11 +9731,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9753,13 +9757,13 @@
         <v>101</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9809,7 +9813,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9833,7 +9837,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9844,11 +9848,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9870,13 +9874,13 @@
         <v>101</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9926,7 +9930,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9961,7 +9965,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9984,17 +9988,17 @@
         <v>57</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10019,13 +10023,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10043,7 +10047,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>56</v>
@@ -10061,16 +10065,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -10078,7 +10082,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10101,19 +10105,19 @@
         <v>57</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10162,7 +10166,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10180,24 +10184,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10220,19 +10224,19 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10260,10 +10264,10 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10281,7 +10285,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10290,7 +10294,7 @@
         <v>56</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>45</v>
@@ -10305,7 +10309,7 @@
         <v>99</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10316,11 +10320,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10339,19 +10343,19 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10379,10 +10383,10 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10400,7 +10404,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10418,24 +10422,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10461,16 +10465,16 @@
         <v>45</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10519,7 +10523,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10540,10 +10544,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>

--- a/snapshot/BodyTemperatureMeas.xlsx
+++ b/snapshot/BodyTemperatureMeas.xlsx
@@ -355,7 +355,7 @@
     <t>deltaFlag</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/deltaFlag]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/DeltaFlagExt]]} {[]}
 </t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>associatedPrecondition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/associatedPrecondition]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/AssociatedPreconditionExt]]} {[]}
 </t>
   </si>
   <si>
@@ -393,7 +393,7 @@
     <t>methodDevice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/methodDevice]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/MethodDeviceExt]]} {[]}
 </t>
   </si>
   <si>
